--- a/Dokument/Sprint1.xlsx
+++ b/Dokument/Sprint1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slisk_000\Desktop\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slisk_000\Documents\GitHub\E-Handel\Dokument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -335,7 +335,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>36</c:v>
@@ -450,11 +450,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="397270912"/>
-        <c:axId val="397271304"/>
+        <c:axId val="425735976"/>
+        <c:axId val="425732056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="397270912"/>
+        <c:axId val="425735976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -496,7 +496,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397271304"/>
+        <c:crossAx val="425732056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -504,7 +504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="397271304"/>
+        <c:axId val="425732056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -554,7 +554,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397270912"/>
+        <c:crossAx val="425735976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1821,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="5">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5">
         <v>36</v>
